--- a/Montgomery_Fleet_Equipment_Inventory_FA_PART_1_START.xlsx
+++ b/Montgomery_Fleet_Equipment_Inventory_FA_PART_1_START.xlsx
@@ -165,12 +165,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,6 +179,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -190,6 +214,30 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -201,6 +249,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -209,54 +295,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,52 +311,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,6 +323,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -332,187 +340,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,50 +534,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,6 +569,54 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -612,164 +631,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -777,13 +785,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1104,11 +1112,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:D63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1217,6 +1225,7 @@
         <v>2</v>
       </c>
     </row>
+    <row r="8" hidden="1"/>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>13</v>
@@ -1413,6 +1422,7 @@
         <v>1</v>
       </c>
     </row>
+    <row r="23" hidden="1"/>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>30</v>
@@ -1511,7 +1521,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" hidden="1" spans="1:4">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1592,6 +1602,7 @@
         <v>11</v>
       </c>
     </row>
+    <row r="37" hidden="1"/>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>33</v>
@@ -1732,6 +1743,8 @@
         <v>4</v>
       </c>
     </row>
+    <row r="48" hidden="1"/>
+    <row r="49" hidden="1"/>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>43</v>
@@ -1929,6 +1942,41 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D63">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Consumer"/>
+        <filter val="County Executives"/>
+        <filter val="Community Use of Public"/>
+        <filter val="Economic"/>
+        <filter val="Circuit"/>
+        <filter val="Community Engagement"/>
+        <filter val="Correction and"/>
+        <filter val="Fire and"/>
+        <filter val="Finance"/>
+        <filter val="Board of"/>
+        <filter val="Enviromnental"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Cluster"/>
+        <filter val="Elections"/>
+        <filter val="Servcies"/>
+        <filter val="Services"/>
+        <filter val="Facilities"/>
+        <filter val="Court"/>
+        <filter val="Development"/>
+        <filter val="Office"/>
+        <filter val="Recsue"/>
+        <filter val="Rescue"/>
+        <filter val="Rehabilitation"/>
+        <filter val="Rehabilltation"/>
+        <filter val="Protection"/>
+      </filters>
+    </filterColumn>
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/Montgomery_Fleet_Equipment_Inventory_FA_PART_1_START.xlsx
+++ b/Montgomery_Fleet_Equipment_Inventory_FA_PART_1_START.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Montgomery_Fleet_Equipment_Inve" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Montgomery_Fleet_Equipment_Inve!$A$1:$D$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Montgomery_Fleet_Equipment_Inve!$A$1:$D$59</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="50">
   <si>
     <t>Department</t>
   </si>
@@ -158,6 +158,15 @@
   </si>
   <si>
     <t>Health and Human</t>
+  </si>
+  <si>
+    <t>tnhdhhdNTDH</t>
+  </si>
+  <si>
+    <t>NDTHD</t>
+  </si>
+  <si>
+    <t>NHTD</t>
   </si>
 </sst>
 </file>
@@ -166,9 +175,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -187,6 +196,135 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,141 +333,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -340,187 +349,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,41 +540,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -631,167 +605,211 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1113,10 +1131,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1124,7 +1142,7 @@
     <col min="1" max="1" width="23.5555555555556" customWidth="1"/>
     <col min="2" max="2" width="13.4444444444444" customWidth="1"/>
     <col min="3" max="3" width="25.8888888888889" customWidth="1"/>
-    <col min="4" max="4" width="16.4444444444444" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.4444444444444" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -1137,21 +1155,21 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+    <row r="2" s="2" customFormat="1" spans="1:4">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1165,7 +1183,7 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>2</v>
       </c>
     </row>
@@ -1179,7 +1197,7 @@
       <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1193,7 +1211,7 @@
       <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>8</v>
       </c>
     </row>
@@ -1207,7 +1225,7 @@
       <c r="C6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>7</v>
       </c>
     </row>
@@ -1221,11 +1239,24 @@
       <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="8" hidden="1"/>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+    </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>13</v>
@@ -1236,36 +1267,36 @@
       <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="D11" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1273,13 +1304,13 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="2">
-        <v>3</v>
+        <v>21</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1287,13 +1318,13 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="2">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="D13" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1304,10 +1335,10 @@
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="2">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="D14" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1318,10 +1349,10 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="2">
-        <v>3</v>
+        <v>23</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1332,10 +1363,10 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="2">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="D16" s="3">
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1346,10 +1377,10 @@
         <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="2">
-        <v>8</v>
+        <v>15</v>
+      </c>
+      <c r="D17" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1360,24 +1391,24 @@
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="2">
-        <v>10</v>
+        <v>24</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="2">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1388,41 +1419,54 @@
         <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="2">
-        <v>2</v>
+        <v>27</v>
+      </c>
+      <c r="D20" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="2">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" hidden="1"/>
+      <c r="D22" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="3">
+        <v>15</v>
+      </c>
+    </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>30</v>
@@ -1431,10 +1475,10 @@
         <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="2">
-        <v>18</v>
+        <v>5</v>
+      </c>
+      <c r="D24" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1445,10 +1489,10 @@
         <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="2">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1459,10 +1503,10 @@
         <v>17</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="2">
-        <v>3</v>
+        <v>24</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1473,10 +1517,10 @@
         <v>17</v>
       </c>
       <c r="C27" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="2">
-        <v>1</v>
+        <v>31</v>
+      </c>
+      <c r="D27" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1487,49 +1531,49 @@
         <v>17</v>
       </c>
       <c r="C28" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="2">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="D28" s="3">
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" s="2">
-        <v>2</v>
+        <v>15</v>
+      </c>
+      <c r="D29" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D30" s="2">
+        <v>27</v>
+      </c>
+      <c r="D30" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="31" hidden="1" spans="1:4">
-      <c r="A31" t="s">
-        <v>32</v>
+      <c r="B31" t="s">
+        <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="2">
-        <v>3</v>
+        <v>35</v>
+      </c>
+      <c r="D31" s="3">
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1540,10 +1584,10 @@
         <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" s="2">
-        <v>27</v>
+        <v>35</v>
+      </c>
+      <c r="D32" s="3">
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1554,10 +1598,10 @@
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" s="2">
-        <v>12</v>
+        <v>36</v>
+      </c>
+      <c r="D33" s="3">
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1568,10 +1612,10 @@
         <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
-      </c>
-      <c r="D34" s="2">
-        <v>12</v>
+        <v>37</v>
+      </c>
+      <c r="D34" s="3">
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1582,10 +1626,10 @@
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>36</v>
-      </c>
-      <c r="D35" s="2">
-        <v>18</v>
+        <v>9</v>
+      </c>
+      <c r="D35" s="3">
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1596,25 +1640,38 @@
         <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>37</v>
-      </c>
-      <c r="D36" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" hidden="1"/>
+        <v>5</v>
+      </c>
+      <c r="D36" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="3">
+        <v>2</v>
+      </c>
+    </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>33</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="2">
-        <v>6</v>
+        <v>23</v>
+      </c>
+      <c r="D38" s="3">
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1625,10 +1682,10 @@
         <v>34</v>
       </c>
       <c r="C39" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" s="2">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="D39" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1639,10 +1696,10 @@
         <v>34</v>
       </c>
       <c r="C40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="2">
-        <v>2</v>
+        <v>39</v>
+      </c>
+      <c r="D40" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1650,13 +1707,13 @@
         <v>33</v>
       </c>
       <c r="B41" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C41" t="s">
-        <v>23</v>
-      </c>
-      <c r="D41" s="2">
-        <v>12</v>
+        <v>40</v>
+      </c>
+      <c r="D41" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1667,9 +1724,9 @@
         <v>34</v>
       </c>
       <c r="C42" t="s">
-        <v>15</v>
-      </c>
-      <c r="D42" s="2">
+        <v>41</v>
+      </c>
+      <c r="D42" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1681,10 +1738,10 @@
         <v>34</v>
       </c>
       <c r="C43" t="s">
-        <v>39</v>
-      </c>
-      <c r="D43" s="2">
-        <v>4</v>
+        <v>42</v>
+      </c>
+      <c r="D43" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1695,56 +1752,82 @@
         <v>34</v>
       </c>
       <c r="C44" t="s">
-        <v>40</v>
-      </c>
-      <c r="D44" s="2">
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="D44" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>41</v>
-      </c>
-      <c r="D45" s="2">
+        <v>37</v>
+      </c>
+      <c r="D45" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C46" t="s">
-        <v>42</v>
-      </c>
-      <c r="D46" s="2">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="D46" s="3">
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C47" t="s">
-        <v>39</v>
-      </c>
-      <c r="D47" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" hidden="1"/>
-    <row r="49" hidden="1"/>
+        <v>40</v>
+      </c>
+      <c r="D47" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="3">
+        <v>31</v>
+      </c>
+    </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>43</v>
@@ -1753,10 +1836,10 @@
         <v>44</v>
       </c>
       <c r="C50" t="s">
-        <v>37</v>
-      </c>
-      <c r="D50" s="2">
-        <v>1</v>
+        <v>31</v>
+      </c>
+      <c r="D50" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1767,10 +1850,10 @@
         <v>44</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="2">
-        <v>21</v>
+        <v>5</v>
+      </c>
+      <c r="D51" s="3">
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1781,10 +1864,10 @@
         <v>44</v>
       </c>
       <c r="C52" t="s">
-        <v>40</v>
-      </c>
-      <c r="D52" s="2">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="D52" s="3">
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1792,13 +1875,13 @@
         <v>43</v>
       </c>
       <c r="B53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C53" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" s="2">
-        <v>45</v>
+        <v>41</v>
+      </c>
+      <c r="D53" s="3">
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1809,157 +1892,86 @@
         <v>44</v>
       </c>
       <c r="C54" t="s">
-        <v>15</v>
-      </c>
-      <c r="D54" s="2">
-        <v>31</v>
+        <v>23</v>
+      </c>
+      <c r="D54" s="3">
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B55" t="s">
         <v>44</v>
       </c>
       <c r="C55" t="s">
-        <v>31</v>
-      </c>
-      <c r="D55" s="2">
-        <v>3</v>
+        <v>24</v>
+      </c>
+      <c r="D55" s="3">
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
       </c>
-      <c r="D56" s="2">
-        <v>42</v>
+      <c r="D56" s="3">
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B57" t="s">
         <v>44</v>
       </c>
       <c r="C57" t="s">
-        <v>24</v>
-      </c>
-      <c r="D57" s="2">
-        <v>5</v>
+        <v>27</v>
+      </c>
+      <c r="D57" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C58" t="s">
-        <v>41</v>
-      </c>
-      <c r="D58" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>15</v>
+      </c>
+      <c r="D58" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" hidden="1" spans="1:4">
       <c r="A59" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B59" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C59" t="s">
-        <v>23</v>
-      </c>
-      <c r="D59" s="2">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" t="s">
-        <v>46</v>
-      </c>
-      <c r="B60" t="s">
-        <v>44</v>
-      </c>
-      <c r="C60" t="s">
-        <v>24</v>
-      </c>
-      <c r="D60" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" t="s">
-        <v>46</v>
-      </c>
-      <c r="B61" t="s">
-        <v>45</v>
-      </c>
-      <c r="C61" t="s">
-        <v>5</v>
-      </c>
-      <c r="D61" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" t="s">
-        <v>46</v>
-      </c>
-      <c r="B62" t="s">
-        <v>44</v>
-      </c>
-      <c r="C62" t="s">
-        <v>27</v>
-      </c>
-      <c r="D62" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" t="s">
-        <v>46</v>
-      </c>
-      <c r="B63" t="s">
-        <v>44</v>
-      </c>
-      <c r="C63" t="s">
-        <v>15</v>
-      </c>
-      <c r="D63" s="2">
-        <v>75</v>
+        <v>49</v>
+      </c>
+      <c r="D59" s="3">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D63">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Consumer"/>
-        <filter val="County Executives"/>
-        <filter val="Community Use of Public"/>
-        <filter val="Economic"/>
-        <filter val="Circuit"/>
-        <filter val="Community Engagement"/>
-        <filter val="Correction and"/>
-        <filter val="Fire and"/>
-        <filter val="Finance"/>
-        <filter val="Board of"/>
-        <filter val="Enviromnental"/>
-      </filters>
-    </filterColumn>
+  <autoFilter ref="A1:D59">
     <filterColumn colId="1">
-      <filters>
+      <filters blank="1">
         <filter val="Cluster"/>
         <filter val="Elections"/>
         <filter val="Servcies"/>
@@ -1978,6 +1990,7 @@
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>